--- a/assets/formDoc/gfa_template.xlsx
+++ b/assets/formDoc/gfa_template.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\gahk-web\assets\formDoc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FFAD19F0-F0D6-48D3-98BF-BB62C9B0097B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A74F715-DB3A-45E4-8A89-08E38A63FDEF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>申請表編號 Application Number</t>
   </si>
@@ -74,6 +74,10 @@
   </si>
   <si>
     <t>隊伍/團體狀況 Team Status</t>
+  </si>
+  <si>
+    <t>比賽年份 Year of Competition</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -464,86 +468,89 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R1"/>
+  <dimension ref="A1:S1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="12" customWidth="1"/>
-    <col min="2" max="2" width="9.453125" customWidth="1"/>
-    <col min="3" max="3" width="9.6328125" customWidth="1"/>
-    <col min="4" max="4" width="9.453125" customWidth="1"/>
-    <col min="5" max="5" width="9.54296875" customWidth="1"/>
-    <col min="6" max="6" width="22.453125" customWidth="1"/>
-    <col min="7" max="8" width="16.1796875" customWidth="1"/>
-    <col min="9" max="9" width="15.6328125" customWidth="1"/>
-    <col min="10" max="10" width="15.54296875" customWidth="1"/>
-    <col min="11" max="11" width="16.26953125" customWidth="1"/>
-    <col min="12" max="12" width="9.54296875" customWidth="1"/>
-    <col min="13" max="13" width="13.453125" customWidth="1"/>
-    <col min="14" max="14" width="9.6328125" customWidth="1"/>
-    <col min="15" max="15" width="9.36328125" customWidth="1"/>
-    <col min="16" max="16" width="9.453125" customWidth="1"/>
-    <col min="17" max="17" width="9.6328125" customWidth="1"/>
-    <col min="18" max="18" width="14.36328125" customWidth="1"/>
+    <col min="1" max="2" width="12" customWidth="1"/>
+    <col min="3" max="3" width="9.453125" customWidth="1"/>
+    <col min="4" max="4" width="9.6328125" customWidth="1"/>
+    <col min="5" max="5" width="9.453125" customWidth="1"/>
+    <col min="6" max="6" width="9.54296875" customWidth="1"/>
+    <col min="7" max="7" width="22.453125" customWidth="1"/>
+    <col min="8" max="9" width="16.1796875" customWidth="1"/>
+    <col min="10" max="10" width="15.6328125" customWidth="1"/>
+    <col min="11" max="11" width="15.54296875" customWidth="1"/>
+    <col min="12" max="12" width="16.26953125" customWidth="1"/>
+    <col min="13" max="13" width="9.54296875" customWidth="1"/>
+    <col min="14" max="14" width="13.453125" customWidth="1"/>
+    <col min="15" max="15" width="9.6328125" customWidth="1"/>
+    <col min="16" max="16" width="9.36328125" customWidth="1"/>
+    <col min="17" max="17" width="9.453125" customWidth="1"/>
+    <col min="18" max="18" width="9.6328125" customWidth="1"/>
+    <col min="19" max="19" width="14.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>17</v>
       </c>
     </row>
@@ -552,7 +559,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" copies="0" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:R1" numberStoredAsText="1"/>
+    <ignoredError sqref="C1:S1 A1" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>